--- a/LL parser/新建 Microsoft Excel 工作表.xlsx
+++ b/LL parser/新建 Microsoft Excel 工作表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A30576-42EF-4E80-814A-AA3AE737439B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89397477-A7D2-4744-9743-1F08B9ED21FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,19 +567,19 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -635,7 +635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -668,23 +668,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
       <c r="C5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -692,7 +692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -700,7 +700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -708,7 +708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -728,7 +728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -739,7 +739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -750,7 +750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -761,7 +761,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -772,7 +772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -786,7 +786,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>3</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>7</v>
       </c>
@@ -820,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>2</v>
       </c>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>11</v>
       </c>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>17</v>
       </c>
@@ -877,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>18</v>
       </c>
@@ -891,7 +891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>20</v>
       </c>
@@ -902,7 +902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>23</v>
       </c>
@@ -931,7 +931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>28</v>
       </c>
@@ -939,7 +939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>30</v>
       </c>
@@ -968,7 +968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>32</v>
       </c>
@@ -976,7 +976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>34</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>18</v>
       </c>
